--- a/file/temp/ExcelTableToMarkDownSample.xlsx
+++ b/file/temp/ExcelTableToMarkDownSample.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\R.SIGE\file\temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3958AA4-EC88-4C0C-8156-A6D412967FE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7EF67F9-CEAA-454F-992E-0E6D0E56DE49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="11010" yWindow="210" windowWidth="9840" windowHeight="11243" activeTab="2" xr2:uid="{D94F812B-BC61-4A22-9692-634766FE0D40}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="26537" windowHeight="15943" activeTab="1" xr2:uid="{D94F812B-BC61-4A22-9692-634766FE0D40}"/>
   </bookViews>
   <sheets>
     <sheet name="Sample" sheetId="1" r:id="rId1"/>
@@ -318,9 +318,6 @@
     <t>2.5 La clasificación del territorio en suelo urbano (zona urbana consolidada  con inclusión centros poblados de corregimientos), de expansión urbana (definido en programas de ejecución, inclusión de áreas de desarrollo concertado) y rural (suburbano, protección, rural), con la correspondiente fijación del perímetro del suelo urbano, en los términos en que estas categorías quedan definidas en el Capítulo IV de la presente ley, y siguiendo los lineamientos de las regulaciones del Ministerio del Medio Ambiente en cuanto a usos del suelo, exclusivamente en los aspectos ambientales y de conformidad con los objetivos y criterios definidos por las Areas Metropolitanas en las normas obligatoriamente generales, para el caso de los municipios que las integran.&lt;br&gt;&lt;br&gt;Perímetro urbano no mayor al perímetro de servicios públicos o sanitario.&lt;br&gt;&lt;br&gt;En el suelo suburbano se incluyen opcionalmente los corredores urbanos interregionales.&lt;br&gt;&lt;br&gt;EOT: División del territorio en suelo urbano y rural.</t>
   </si>
   <si>
-    <t>CG-01 Clasificación general del territorio.&lt;br&gt;&lt;br&gt;DR-01a Categorías de protección y desarrollo restringido en suelo rural.&lt;br&gt;&lt;br&gt;CG-03 Categorías de protección y desarrollo restringido en suelo rural.&lt;br&gt;&lt;br&gt;DU-13 Perímetro y división política urbana.&lt;br&gt;&lt;br&gt;DR-14 Clasificación general del territorio.&lt;br&gt;&lt;br&gt;DR-16 Límites y división política rural.&lt;br&gt;&lt;br&gt;CG-06 División política rural.&lt;br&gt;&lt;br&gt;CG-07 División política urbana.&lt;br&gt;&lt;br&gt;DR-17 Predios de propiedad del Municipio.</t>
-  </si>
-  <si>
     <t>DR-13 Equipamientos colectivos rurales y elementos patrimoniales.&lt;br&gt;&lt;br&gt;DU-07 Sistemas urbanos de espacio público y equipamientos colectivos.&lt;br&gt;&lt;br&gt;CU-03 Áreas de actividad en suelo urbano y de expansión urbana.&lt;br&gt;&lt;br&gt;CR-01 Áreas de actividad en suelo rural.&lt;br&gt;&lt;br&gt;CR-02a Áreas de actividad en Centros Poblados Rurales.&lt;br&gt;&lt;br&gt;CR-02b Áreas de actividad en Centros Poblados Rurales.&lt;br&gt;&lt;br&gt;DR-01a Categorías de protección y desarrollo restringido en suelo rural.&lt;br&gt;&lt;br&gt;DR-01b Áreas protegidas.&lt;br&gt;&lt;br&gt;CG-05 Modelo de ocupación del territorio.</t>
   </si>
   <si>
@@ -514,6 +511,9 @@
   </si>
   <si>
     <t>Localización de macroproyectos urbanos.</t>
+  </si>
+  <si>
+    <t>CG-01 Clasificación general del territorio.&lt;br&gt;&lt;br&gt;DR-01a Categorías de protección y desarrollo restringido en suelo rural.&lt;br&gt;&lt;br&gt;CG-03 Categorías de protección y desarrollo restringido en suelo rural.&lt;br&gt;&lt;br&gt;DU-13 Perímetro y división política urbana.&lt;br&gt;&lt;br&gt;DR-14 Clasificación general del territorio.&lt;br&gt;&lt;br&gt;DR-16 Límites y división política rural.&lt;br&gt;&lt;br&gt;CG-06 División política rural.&lt;br&gt;&lt;br&gt;CG-07 División política urbana.&lt;br&gt;&lt;br&gt;DR-17 Predios de propiedad del Municipio.&lt;br&gt;&lt;br&gt;DU-03 Sistema urbano de acueducto.&lt;br&gt;&lt;br&gt;DU-04 Sistema urbano de alcantarillado.</t>
   </si>
 </sst>
 </file>
@@ -1644,10 +1644,10 @@
     </row>
     <row r="5" spans="2:22" ht="72.900000000000006" x14ac:dyDescent="0.45">
       <c r="B5" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>130</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>131</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>7</v>
@@ -1659,10 +1659,10 @@
         <v>7</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
@@ -1702,10 +1702,10 @@
     </row>
     <row r="6" spans="2:22" ht="116.6" x14ac:dyDescent="0.45">
       <c r="B6" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>7</v>
@@ -1717,10 +1717,10 @@
         <v>77</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
@@ -1760,10 +1760,10 @@
     </row>
     <row r="7" spans="2:22" ht="409.6" x14ac:dyDescent="0.45">
       <c r="B7" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>7</v>
@@ -1775,10 +1775,10 @@
         <v>7</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
@@ -1818,7 +1818,7 @@
     </row>
     <row r="8" spans="2:22" ht="131.15" x14ac:dyDescent="0.45">
       <c r="B8" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C8" s="5">
         <v>14</v>
@@ -1833,10 +1833,10 @@
         <v>77</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
@@ -1876,10 +1876,10 @@
     </row>
     <row r="9" spans="2:22" ht="233.15" x14ac:dyDescent="0.45">
       <c r="B9" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>138</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>139</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>7</v>
@@ -1891,10 +1891,10 @@
         <v>77</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
@@ -1934,7 +1934,7 @@
     </row>
     <row r="10" spans="2:22" ht="116.6" x14ac:dyDescent="0.45">
       <c r="B10" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C10" s="5">
         <v>14</v>
@@ -1949,10 +1949,10 @@
         <v>77</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
@@ -1992,10 +1992,10 @@
     </row>
     <row r="11" spans="2:22" ht="87.45" x14ac:dyDescent="0.45">
       <c r="B11" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>7</v>
@@ -2007,10 +2007,10 @@
         <v>7</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>
@@ -5290,9 +5290,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{476B3E5C-0466-44FF-A1F4-1A1B3E2A0C68}">
   <dimension ref="B1:V103"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="H1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H9" sqref="H9"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="14.6" x14ac:dyDescent="0.45"/>
@@ -5987,7 +5987,7 @@
         <v>82</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
@@ -6042,10 +6042,10 @@
         <v>7</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>90</v>
+        <v>155</v>
       </c>
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
@@ -6076,11 +6076,11 @@
       </c>
       <c r="U14" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>| 2.5 La clasificación del territorio en suelo urbano (zona urbana consolidada  con inclusión centros poblados de corregimientos), de expansión urbana (definido en programas de ejecución, inclusión de áreas de desarrollo concertado) y rural (suburbano, protección, rural), con la correspondiente fijación del perímetro del suelo urbano, en los términos en que estas categorías quedan definidas en el Capítulo IV de la presente ley, y siguiendo los lineamientos de las regulaciones del Ministerio del Medio Ambiente en cuanto a usos del suelo, exclusivamente en los aspectos ambientales y de conformidad con los objetivos y criterios definidos por las Areas Metropolitanas en las normas obligatoriamente generales, para el caso de los municipios que las integran.&lt;br&gt;&lt;br&gt;Perímetro urbano no mayor al perímetro de servicios públicos o sanitario.&lt;br&gt;&lt;br&gt;En el suelo suburbano se incluyen opcionalmente los corredores urbanos interregionales.&lt;br&gt;&lt;br&gt;EOT: División del territorio en suelo urbano y rural. | 12, 16, 17, 31, 32, 34 | ✓ | ✓ | ✓ | Delimitación y clasificación del territorio: urbano, expansión urbana y rural.&lt;br&gt;&lt;br&gt;Delimitación perímetro de servicios públicos o sanitario (verificar que el área urbana no exceda este perímetro).&lt;br&gt;&lt;br&gt;Límites y división política rural (veredas).&lt;br&gt;&lt;br&gt;Predios de propiedad del Municipio.&lt;br&gt;&lt;br&gt;Modelo de ocupación del territorio - MOT. | CG-01 Clasificación general del territorio.&lt;br&gt;&lt;br&gt;DR-01a Categorías de protección y desarrollo restringido en suelo rural.&lt;br&gt;&lt;br&gt;CG-03 Categorías de protección y desarrollo restringido en suelo rural.&lt;br&gt;&lt;br&gt;DU-13 Perímetro y división política urbana.&lt;br&gt;&lt;br&gt;DR-14 Clasificación general del territorio.&lt;br&gt;&lt;br&gt;DR-16 Límites y división política rural.&lt;br&gt;&lt;br&gt;CG-06 División política rural.&lt;br&gt;&lt;br&gt;CG-07 División política urbana.&lt;br&gt;&lt;br&gt;DR-17 Predios de propiedad del Municipio. |</v>
+        <v>| 2.5 La clasificación del territorio en suelo urbano (zona urbana consolidada  con inclusión centros poblados de corregimientos), de expansión urbana (definido en programas de ejecución, inclusión de áreas de desarrollo concertado) y rural (suburbano, protección, rural), con la correspondiente fijación del perímetro del suelo urbano, en los términos en que estas categorías quedan definidas en el Capítulo IV de la presente ley, y siguiendo los lineamientos de las regulaciones del Ministerio del Medio Ambiente en cuanto a usos del suelo, exclusivamente en los aspectos ambientales y de conformidad con los objetivos y criterios definidos por las Areas Metropolitanas en las normas obligatoriamente generales, para el caso de los municipios que las integran.&lt;br&gt;&lt;br&gt;Perímetro urbano no mayor al perímetro de servicios públicos o sanitario.&lt;br&gt;&lt;br&gt;En el suelo suburbano se incluyen opcionalmente los corredores urbanos interregionales.&lt;br&gt;&lt;br&gt;EOT: División del territorio en suelo urbano y rural. | 12, 16, 17, 31, 32, 34 | ✓ | ✓ | ✓ | Delimitación y clasificación del territorio: urbano, expansión urbana y rural.&lt;br&gt;&lt;br&gt;Delimitación perímetro de servicios públicos o sanitario (verificar que el área urbana no exceda este perímetro).&lt;br&gt;&lt;br&gt;Límites y división política rural (veredas).&lt;br&gt;&lt;br&gt;Predios de propiedad del Municipio.&lt;br&gt;&lt;br&gt;Modelo de ocupación del territorio - MOT. | CG-01 Clasificación general del territorio.&lt;br&gt;&lt;br&gt;DR-01a Categorías de protección y desarrollo restringido en suelo rural.&lt;br&gt;&lt;br&gt;CG-03 Categorías de protección y desarrollo restringido en suelo rural.&lt;br&gt;&lt;br&gt;DU-13 Perímetro y división política urbana.&lt;br&gt;&lt;br&gt;DR-14 Clasificación general del territorio.&lt;br&gt;&lt;br&gt;DR-16 Límites y división política rural.&lt;br&gt;&lt;br&gt;CG-06 División política rural.&lt;br&gt;&lt;br&gt;CG-07 División política urbana.&lt;br&gt;&lt;br&gt;DR-17 Predios de propiedad del Municipio.&lt;br&gt;&lt;br&gt;DU-03 Sistema urbano de acueducto.&lt;br&gt;&lt;br&gt;DU-04 Sistema urbano de alcantarillado. |</v>
       </c>
       <c r="V14" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>| 2.5 La clasificación del territorio en suelo urbano (zona urbana consolidada  con inclusión centros poblados de corregimientos), de expansión urbana (definido en programas de ejecución, inclusión de áreas de desarrollo concertado) y rural (suburbano, protección, rural), con la correspondiente fijación del perímetro del suelo urbano, en los términos en que estas categorías quedan definidas en el Capítulo IV de la presente ley, y siguiendo los lineamientos de las regulaciones del Ministerio del Medio Ambiente en cuanto a usos del suelo, exclusivamente en los aspectos ambientales y de conformidad con los objetivos y criterios definidos por las Areas Metropolitanas en las normas obligatoriamente generales, para el caso de los municipios que las integran.&lt;br&gt;&lt;br&gt;Perímetro urbano no mayor al perímetro de servicios públicos o sanitario.&lt;br&gt;&lt;br&gt;En el suelo suburbano se incluyen opcionalmente los corredores urbanos interregionales.&lt;br&gt;&lt;br&gt;EOT: División del territorio en suelo urbano y rural. | 12, 16, 17, 31, 32, 34 | ✓ | ✓ |✓ |Delimitación y clasificación del territorio: urbano, expansión urbana y rural.&lt;br&gt;&lt;br&gt;Delimitación perímetro de servicios públicos o sanitario (verificar que el área urbana no exceda este perímetro).&lt;br&gt;&lt;br&gt;Límites y división política rural (veredas).&lt;br&gt;&lt;br&gt;Predios de propiedad del Municipio.&lt;br&gt;&lt;br&gt;Modelo de ocupación del territorio - MOT. |CG-01 Clasificación general del territorio.&lt;br&gt;&lt;br&gt;DR-01a Categorías de protección y desarrollo restringido en suelo rural.&lt;br&gt;&lt;br&gt;CG-03 Categorías de protección y desarrollo restringido en suelo rural.&lt;br&gt;&lt;br&gt;DU-13 Perímetro y división política urbana.&lt;br&gt;&lt;br&gt;DR-14 Clasificación general del territorio.&lt;br&gt;&lt;br&gt;DR-16 Límites y división política rural.&lt;br&gt;&lt;br&gt;CG-06 División política rural.&lt;br&gt;&lt;br&gt;CG-07 División política urbana.&lt;br&gt;&lt;br&gt;DR-17 Predios de propiedad del Municipio. | | | | | | |</v>
+        <v>| 2.5 La clasificación del territorio en suelo urbano (zona urbana consolidada  con inclusión centros poblados de corregimientos), de expansión urbana (definido en programas de ejecución, inclusión de áreas de desarrollo concertado) y rural (suburbano, protección, rural), con la correspondiente fijación del perímetro del suelo urbano, en los términos en que estas categorías quedan definidas en el Capítulo IV de la presente ley, y siguiendo los lineamientos de las regulaciones del Ministerio del Medio Ambiente en cuanto a usos del suelo, exclusivamente en los aspectos ambientales y de conformidad con los objetivos y criterios definidos por las Areas Metropolitanas en las normas obligatoriamente generales, para el caso de los municipios que las integran.&lt;br&gt;&lt;br&gt;Perímetro urbano no mayor al perímetro de servicios públicos o sanitario.&lt;br&gt;&lt;br&gt;En el suelo suburbano se incluyen opcionalmente los corredores urbanos interregionales.&lt;br&gt;&lt;br&gt;EOT: División del territorio en suelo urbano y rural. | 12, 16, 17, 31, 32, 34 | ✓ | ✓ |✓ |Delimitación y clasificación del territorio: urbano, expansión urbana y rural.&lt;br&gt;&lt;br&gt;Delimitación perímetro de servicios públicos o sanitario (verificar que el área urbana no exceda este perímetro).&lt;br&gt;&lt;br&gt;Límites y división política rural (veredas).&lt;br&gt;&lt;br&gt;Predios de propiedad del Municipio.&lt;br&gt;&lt;br&gt;Modelo de ocupación del territorio - MOT. |CG-01 Clasificación general del territorio.&lt;br&gt;&lt;br&gt;DR-01a Categorías de protección y desarrollo restringido en suelo rural.&lt;br&gt;&lt;br&gt;CG-03 Categorías de protección y desarrollo restringido en suelo rural.&lt;br&gt;&lt;br&gt;DU-13 Perímetro y división política urbana.&lt;br&gt;&lt;br&gt;DR-14 Clasificación general del territorio.&lt;br&gt;&lt;br&gt;DR-16 Límites y división política rural.&lt;br&gt;&lt;br&gt;CG-06 División política rural.&lt;br&gt;&lt;br&gt;CG-07 División política urbana.&lt;br&gt;&lt;br&gt;DR-17 Predios de propiedad del Municipio.&lt;br&gt;&lt;br&gt;DU-03 Sistema urbano de acueducto.&lt;br&gt;&lt;br&gt;DU-04 Sistema urbano de alcantarillado. | | | | | | |</v>
       </c>
     </row>
     <row r="15" spans="2:22" x14ac:dyDescent="0.45">
@@ -9202,8 +9202,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0DE2C72-489E-4863-9222-1504422E4797}">
   <dimension ref="B1:V103"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
@@ -9433,10 +9433,10 @@
     </row>
     <row r="5" spans="2:22" ht="72.900000000000006" x14ac:dyDescent="0.45">
       <c r="B5" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>93</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>94</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>7</v>
@@ -9487,10 +9487,10 @@
     </row>
     <row r="6" spans="2:22" ht="393.45" x14ac:dyDescent="0.45">
       <c r="B6" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>7</v>
@@ -9502,10 +9502,10 @@
         <v>7</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
@@ -9545,10 +9545,10 @@
     </row>
     <row r="7" spans="2:22" ht="349.75" x14ac:dyDescent="0.45">
       <c r="B7" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>7</v>
@@ -9560,10 +9560,10 @@
         <v>7</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
@@ -9603,7 +9603,7 @@
     </row>
     <row r="8" spans="2:22" ht="72.900000000000006" x14ac:dyDescent="0.45">
       <c r="B8" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C8" s="5">
         <v>13</v>
@@ -9618,10 +9618,10 @@
         <v>77</v>
       </c>
       <c r="G8" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="H8" s="5" t="s">
         <v>98</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>99</v>
       </c>
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
@@ -9661,10 +9661,10 @@
     </row>
     <row r="9" spans="2:22" ht="233.15" x14ac:dyDescent="0.45">
       <c r="B9" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>100</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>101</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>7</v>
@@ -9676,10 +9676,10 @@
         <v>77</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
@@ -9719,10 +9719,10 @@
     </row>
     <row r="10" spans="2:22" ht="87.45" x14ac:dyDescent="0.45">
       <c r="B10" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>103</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>104</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>7</v>
@@ -9734,10 +9734,10 @@
         <v>77</v>
       </c>
       <c r="G10" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="H10" s="5" t="s">
         <v>105</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>106</v>
       </c>
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
@@ -9777,10 +9777,10 @@
     </row>
     <row r="11" spans="2:22" ht="102" x14ac:dyDescent="0.45">
       <c r="B11" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>107</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>108</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>7</v>
@@ -9792,7 +9792,7 @@
         <v>77</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H11" s="5"/>
       <c r="I11" s="5"/>
@@ -9833,10 +9833,10 @@
     </row>
     <row r="12" spans="2:22" ht="189.45" x14ac:dyDescent="0.45">
       <c r="B12" s="5" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>7</v>
@@ -9848,10 +9848,10 @@
         <v>77</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="I12" s="5"/>
       <c r="J12" s="5"/>
@@ -9891,10 +9891,10 @@
     </row>
     <row r="13" spans="2:22" ht="116.6" x14ac:dyDescent="0.45">
       <c r="B13" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>111</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>112</v>
       </c>
       <c r="D13" s="5" t="s">
         <v>7</v>
@@ -9906,10 +9906,10 @@
         <v>77</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
@@ -9949,10 +9949,10 @@
     </row>
     <row r="14" spans="2:22" ht="145.75" x14ac:dyDescent="0.45">
       <c r="B14" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>113</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>114</v>
       </c>
       <c r="D14" s="5" t="s">
         <v>7</v>
@@ -9964,7 +9964,7 @@
         <v>77</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
@@ -10005,10 +10005,10 @@
     </row>
     <row r="15" spans="2:22" ht="409.6" x14ac:dyDescent="0.45">
       <c r="B15" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>7</v>
@@ -10020,10 +10020,10 @@
         <v>7</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
@@ -13370,10 +13370,10 @@
     </row>
     <row r="5" spans="2:22" ht="72.900000000000006" x14ac:dyDescent="0.45">
       <c r="B5" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>130</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>131</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>7</v>
@@ -13385,10 +13385,10 @@
         <v>7</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
@@ -13428,10 +13428,10 @@
     </row>
     <row r="6" spans="2:22" ht="116.6" x14ac:dyDescent="0.45">
       <c r="B6" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>7</v>
@@ -13443,10 +13443,10 @@
         <v>77</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
@@ -13486,10 +13486,10 @@
     </row>
     <row r="7" spans="2:22" ht="409.6" x14ac:dyDescent="0.45">
       <c r="B7" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>7</v>
@@ -13501,10 +13501,10 @@
         <v>7</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
@@ -13544,7 +13544,7 @@
     </row>
     <row r="8" spans="2:22" ht="131.15" x14ac:dyDescent="0.45">
       <c r="B8" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C8" s="5">
         <v>14</v>
@@ -13559,10 +13559,10 @@
         <v>77</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
@@ -13602,10 +13602,10 @@
     </row>
     <row r="9" spans="2:22" ht="233.15" x14ac:dyDescent="0.45">
       <c r="B9" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>138</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>139</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>7</v>
@@ -13617,10 +13617,10 @@
         <v>77</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I9" s="5"/>
       <c r="J9" s="5"/>
@@ -13660,7 +13660,7 @@
     </row>
     <row r="10" spans="2:22" ht="116.6" x14ac:dyDescent="0.45">
       <c r="B10" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C10" s="5">
         <v>14</v>
@@ -13675,10 +13675,10 @@
         <v>77</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
@@ -13718,10 +13718,10 @@
     </row>
     <row r="11" spans="2:22" ht="87.45" x14ac:dyDescent="0.45">
       <c r="B11" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>7</v>
@@ -13733,10 +13733,10 @@
         <v>7</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="I11" s="5"/>
       <c r="J11" s="5"/>

--- a/file/temp/ExcelTableToMarkDownSample.xlsx
+++ b/file/temp/ExcelTableToMarkDownSample.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\R.SIGE\file\temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7EF67F9-CEAA-454F-992E-0E6D0E56DE49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D9B7C44-17C0-417C-AFB2-0454EFA1FD9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="26537" windowHeight="15943" activeTab="1" xr2:uid="{D94F812B-BC61-4A22-9692-634766FE0D40}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="26537" windowHeight="15943" xr2:uid="{D94F812B-BC61-4A22-9692-634766FE0D40}"/>
   </bookViews>
   <sheets>
     <sheet name="Sample" sheetId="1" r:id="rId1"/>
@@ -1413,9 +1413,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B2E19A4-40DE-42A8-B3E2-A2516218588C}">
   <dimension ref="B1:V103"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="F1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U3" sqref="U3:U11"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="U1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="V3" sqref="V3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="14.6" x14ac:dyDescent="0.45"/>
@@ -1426,11 +1426,11 @@
     <col min="4" max="6" width="6.6640625" style="1" customWidth="1"/>
     <col min="7" max="7" width="37.4140625" style="1" customWidth="1"/>
     <col min="8" max="8" width="78.9140625" style="1" customWidth="1"/>
-    <col min="9" max="14" width="4.4140625" style="1" hidden="1" customWidth="1"/>
+    <col min="9" max="14" width="4.4140625" style="1" customWidth="1"/>
     <col min="15" max="15" width="2.75" style="1" customWidth="1"/>
-    <col min="16" max="20" width="74.1640625" style="1" hidden="1" customWidth="1"/>
+    <col min="16" max="20" width="74.1640625" style="1" customWidth="1"/>
     <col min="21" max="21" width="56" style="1" customWidth="1"/>
-    <col min="22" max="22" width="74.1640625" style="1" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="74.1640625" style="1" customWidth="1"/>
     <col min="23" max="16384" width="9.1640625" style="1"/>
   </cols>
   <sheetData>
@@ -5290,9 +5290,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{476B3E5C-0466-44FF-A1F4-1A1B3E2A0C68}">
   <dimension ref="B1:V103"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="G1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H15" sqref="H15"/>
+    <sheetView showGridLines="0" topLeftCell="G1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="14.6" x14ac:dyDescent="0.45"/>
